--- a/Sheets/BidOpData/MachinePatternSheets/BidOpSeed.xlsx
+++ b/Sheets/BidOpData/MachinePatternSheets/BidOpSeed.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Account</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Impression Share</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -363,43 +366,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="9" max="9" width="16.90625" customWidth="1"/>
+    <col min="10" max="10" width="16.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Sheets/BidOpData/MachinePatternSheets/BidOpSeed.xlsx
+++ b/Sheets/BidOpData/MachinePatternSheets/BidOpSeed.xlsx
@@ -1,62 +1,124 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcherisol\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Account</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Campaign</t>
   </si>
   <si>
-    <t>Cost</t>
+    <t>Ad group</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>Changes</t>
+  </si>
+  <si>
+    <t>New Bid</t>
+  </si>
+  <si>
+    <t>Bid</t>
   </si>
   <si>
     <t>Clicks</t>
   </si>
   <si>
-    <t>Conversions</t>
-  </si>
-  <si>
-    <t>Impressions</t>
-  </si>
-  <si>
-    <t>Match Type</t>
-  </si>
-  <si>
-    <t>Keyword</t>
-  </si>
-  <si>
-    <t>Impression Share</t>
-  </si>
-  <si>
-    <t>Date</t>
+    <t>CTR</t>
+  </si>
+  <si>
+    <t>Avg. CPC</t>
+  </si>
+  <si>
+    <t>Spend</t>
+  </si>
+  <si>
+    <t>Conv.</t>
+  </si>
+  <si>
+    <t>CPA</t>
+  </si>
+  <si>
+    <t>Conv. rate</t>
+  </si>
+  <si>
+    <t>Top Impr. share</t>
+  </si>
+  <si>
+    <t>Absolute Top Impression Share</t>
+  </si>
+  <si>
+    <t>Impr. share (IS)</t>
+  </si>
+  <si>
+    <t>Qual. score</t>
+  </si>
+  <si>
+    <t>IS lost to rank</t>
+  </si>
+  <si>
+    <t>IS lost to budget</t>
+  </si>
+  <si>
+    <t>Match type</t>
+  </si>
+  <si>
+    <t>Houston_TX&gt;279&gt;SB&gt;City_MSM102</t>
+  </si>
+  <si>
+    <t>nonmarketname&gt;newhometerms&gt;Spring_TX&gt;279</t>
+  </si>
+  <si>
+    <t>new homes for sale spring tx</t>
+  </si>
+  <si>
+    <t>Broad</t>
+  </si>
+  <si>
+    <t>nonmarketname&gt;newhometerms&gt;Rosharon_TX&gt;279</t>
+  </si>
+  <si>
+    <t>rosharon tx new homes</t>
+  </si>
+  <si>
+    <t>nonmarketname&gt;newhometerms&gt;Tomball_TX&gt;279</t>
+  </si>
+  <si>
+    <t>tomball tx new homes for sale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -72,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,18 +142,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -114,44 +194,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -184,9 +264,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -225,188 +305,427 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" width="16.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="E2">
+        <v>0.4</v>
+      </c>
+      <c r="F2">
+        <v>2.23</v>
+      </c>
+      <c r="G2">
+        <v>246</v>
+      </c>
+      <c r="H2">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="I2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J2">
+        <v>540.44000000000005</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="L2">
+        <v>540.44000000000005</v>
+      </c>
+      <c r="M2">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="N2">
+        <v>0.71530000000000005</v>
+      </c>
+      <c r="O2">
+        <v>0.53310000000000002</v>
+      </c>
+      <c r="P2">
+        <v>0.78939999999999999</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
+      </c>
+      <c r="R2">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="S2">
+        <v>0.156</v>
+      </c>
+      <c r="T2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E3">
+        <v>0.18</v>
+      </c>
+      <c r="F3">
+        <v>5.25</v>
+      </c>
+      <c r="G3">
+        <v>141</v>
+      </c>
+      <c r="H3">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="I3">
+        <v>3.8</v>
+      </c>
+      <c r="J3">
+        <v>535.46</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L3">
+        <v>267.73</v>
+      </c>
+      <c r="M3">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="N3">
+        <v>0.66390000000000005</v>
+      </c>
+      <c r="O3">
+        <v>0.39090000000000003</v>
+      </c>
+      <c r="P3">
+        <v>0.65269999999999995</v>
+      </c>
+      <c r="Q3">
+        <v>10</v>
+      </c>
+      <c r="R3">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="S3">
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="T3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+      <c r="F4">
+        <v>3.31</v>
+      </c>
+      <c r="G4">
+        <v>63</v>
+      </c>
+      <c r="H4">
+        <v>3.73E-2</v>
+      </c>
+      <c r="I4">
+        <v>2.86</v>
+      </c>
+      <c r="J4">
+        <v>180.44</v>
+      </c>
+      <c r="K4">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
+      <c r="L4">
+        <v>36.090000000000003</v>
+      </c>
+      <c r="M4">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="N4">
+        <v>0.63649999999999995</v>
+      </c>
+      <c r="O4">
+        <v>0.33229999999999998</v>
+      </c>
+      <c r="P4">
+        <v>0.64539999999999997</v>
+      </c>
+      <c r="Q4">
+        <v>10</v>
+      </c>
+      <c r="R4">
+        <v>9.01E-2</v>
+      </c>
+      <c r="S4">
+        <v>0.26450000000000001</v>
+      </c>
+      <c r="T4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Sheets/BidOpData/MachinePatternSheets/BidOpSeed.xlsx
+++ b/Sheets/BidOpData/MachinePatternSheets/BidOpSeed.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcherisol\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Campaign</t>
   </si>
@@ -79,37 +74,13 @@
   </si>
   <si>
     <t>Match type</t>
-  </si>
-  <si>
-    <t>Houston_TX&gt;279&gt;SB&gt;City_MSM102</t>
-  </si>
-  <si>
-    <t>nonmarketname&gt;newhometerms&gt;Spring_TX&gt;279</t>
-  </si>
-  <si>
-    <t>new homes for sale spring tx</t>
-  </si>
-  <si>
-    <t>Broad</t>
-  </si>
-  <si>
-    <t>nonmarketname&gt;newhometerms&gt;Rosharon_TX&gt;279</t>
-  </si>
-  <si>
-    <t>rosharon tx new homes</t>
-  </si>
-  <si>
-    <t>nonmarketname&gt;newhometerms&gt;Tomball_TX&gt;279</t>
-  </si>
-  <si>
-    <t>tomball tx new homes for sale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,14 +143,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -226,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,10 +221,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,7 +255,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,263 +430,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15.26953125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="2:21">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="U1" s="1"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="E2">
-        <v>0.4</v>
-      </c>
-      <c r="F2">
-        <v>2.23</v>
-      </c>
-      <c r="G2">
-        <v>246</v>
-      </c>
-      <c r="H2">
-        <v>2.7799999999999998E-2</v>
-      </c>
-      <c r="I2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J2">
-        <v>540.44000000000005</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>540.44000000000005</v>
-      </c>
-      <c r="M2">
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="N2">
-        <v>0.71530000000000005</v>
-      </c>
-      <c r="O2">
-        <v>0.53310000000000002</v>
-      </c>
-      <c r="P2">
-        <v>0.78939999999999999</v>
-      </c>
-      <c r="Q2">
-        <v>10</v>
-      </c>
-      <c r="R2">
-        <v>5.4600000000000003E-2</v>
-      </c>
-      <c r="S2">
-        <v>0.156</v>
-      </c>
-      <c r="T2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="E3">
-        <v>0.18</v>
-      </c>
-      <c r="F3">
-        <v>5.25</v>
-      </c>
-      <c r="G3">
-        <v>141</v>
-      </c>
-      <c r="H3">
-        <v>3.0300000000000001E-2</v>
-      </c>
-      <c r="I3">
-        <v>3.8</v>
-      </c>
-      <c r="J3">
-        <v>535.46</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>267.73</v>
-      </c>
-      <c r="M3">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="N3">
-        <v>0.66390000000000005</v>
-      </c>
-      <c r="O3">
-        <v>0.39090000000000003</v>
-      </c>
-      <c r="P3">
-        <v>0.65269999999999995</v>
-      </c>
-      <c r="Q3">
-        <v>10</v>
-      </c>
-      <c r="R3">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="S3">
-        <v>0.30480000000000002</v>
-      </c>
-      <c r="T3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="E4">
-        <v>0.3</v>
-      </c>
-      <c r="F4">
-        <v>3.31</v>
-      </c>
-      <c r="G4">
-        <v>63</v>
-      </c>
-      <c r="H4">
-        <v>3.73E-2</v>
-      </c>
-      <c r="I4">
-        <v>2.86</v>
-      </c>
-      <c r="J4">
-        <v>180.44</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>36.090000000000003</v>
-      </c>
-      <c r="M4">
-        <v>7.9399999999999998E-2</v>
-      </c>
-      <c r="N4">
-        <v>0.63649999999999995</v>
-      </c>
-      <c r="O4">
-        <v>0.33229999999999998</v>
-      </c>
-      <c r="P4">
-        <v>0.64539999999999997</v>
-      </c>
-      <c r="Q4">
-        <v>10</v>
-      </c>
-      <c r="R4">
-        <v>9.01E-2</v>
-      </c>
-      <c r="S4">
-        <v>0.26450000000000001</v>
-      </c>
-      <c r="T4" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Sheets/BidOpData/MachinePatternSheets/BidOpSeed.xlsx
+++ b/Sheets/BidOpData/MachinePatternSheets/BidOpSeed.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcherisol\Desktop\Communitiesbydate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18250" windowHeight="7030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Campaign</t>
   </si>
@@ -25,6 +35,9 @@
     <t>Keyword</t>
   </si>
   <si>
+    <t>Match type</t>
+  </si>
+  <si>
     <t>Changes</t>
   </si>
   <si>
@@ -73,23 +86,30 @@
     <t>IS lost to budget</t>
   </si>
   <si>
-    <t>Match type</t>
+    <t>Houston_TX&gt;279&gt;SB&gt;City_MSM102</t>
+  </si>
+  <si>
+    <t>nonmarketname&gt;newhometerms&gt;Spring_TX&gt;279</t>
+  </si>
+  <si>
+    <t>new homes for sale spring tx</t>
+  </si>
+  <si>
+    <t>Broad</t>
+  </si>
+  <si>
+    <t>nonmarketname&gt;newhometerms&gt;Rosharon_TX&gt;279</t>
+  </si>
+  <si>
+    <t>rosharon tx new homes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -113,36 +133,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -157,44 +167,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -221,14 +231,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -255,6 +266,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -266,237 +278,339 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:U1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:21">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="F2">
+        <v>0.4</v>
+      </c>
+      <c r="G2">
+        <v>2.23</v>
+      </c>
+      <c r="H2">
+        <v>246</v>
+      </c>
+      <c r="I2">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="J2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K2">
+        <v>540.44000000000005</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>540.44000000000005</v>
+      </c>
+      <c r="N2">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="O2">
+        <v>0.71530000000000005</v>
+      </c>
+      <c r="P2">
+        <v>0.53310000000000002</v>
+      </c>
+      <c r="Q2">
+        <v>0.78939999999999999</v>
+      </c>
+      <c r="R2">
+        <v>10</v>
+      </c>
+      <c r="S2">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="T2">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="F3">
+        <v>0.18</v>
+      </c>
+      <c r="G3">
+        <v>5.25</v>
+      </c>
+      <c r="H3">
+        <v>141</v>
+      </c>
+      <c r="I3">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="J3">
+        <v>3.8</v>
+      </c>
+      <c r="K3">
+        <v>535.46</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>267.73</v>
+      </c>
+      <c r="N3">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="O3">
+        <v>0.66390000000000005</v>
+      </c>
+      <c r="P3">
+        <v>0.39090000000000003</v>
+      </c>
+      <c r="Q3">
+        <v>0.65269999999999995</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="T3">
+        <v>0.30480000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Sheets/BidOpData/MachinePatternSheets/BidOpSeed.xlsx
+++ b/Sheets/BidOpData/MachinePatternSheets/BidOpSeed.xlsx
@@ -422,7 +422,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -441,10 +441,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -503,10 +503,10 @@
         <v>23</v>
       </c>
       <c r="E2">
+        <v>0.4</v>
+      </c>
+      <c r="F2">
         <v>0.89200000000000002</v>
-      </c>
-      <c r="F2">
-        <v>0.4</v>
       </c>
       <c r="G2">
         <v>2.23</v>
@@ -565,10 +565,10 @@
         <v>23</v>
       </c>
       <c r="E3">
+        <v>0.18</v>
+      </c>
+      <c r="F3">
         <v>0.94499999999999995</v>
-      </c>
-      <c r="F3">
-        <v>0.18</v>
       </c>
       <c r="G3">
         <v>5.25</v>

--- a/Sheets/BidOpData/MachinePatternSheets/BidOpSeed.xlsx
+++ b/Sheets/BidOpData/MachinePatternSheets/BidOpSeed.xlsx
@@ -422,26 +422,26 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -491,19 +491,19 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>23</v>
-      </c>
-      <c r="E2">
-        <v>0.4</v>
       </c>
       <c r="F2">
         <v>0.89200000000000002</v>
@@ -553,19 +553,19 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>0.18</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>23</v>
-      </c>
-      <c r="E3">
-        <v>0.18</v>
       </c>
       <c r="F3">
         <v>0.94499999999999995</v>

--- a/Sheets/BidOpData/MachinePatternSheets/BidOpSeed.xlsx
+++ b/Sheets/BidOpData/MachinePatternSheets/BidOpSeed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Campaign</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>rosharon tx new homes</t>
+  </si>
+  <si>
+    <t>Market Number</t>
   </si>
 </sst>
 </file>
@@ -419,15 +422,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -488,8 +491,11 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -550,8 +556,11 @@
       <c r="T2">
         <v>0.156</v>
       </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -611,6 +620,9 @@
       </c>
       <c r="T3">
         <v>0.30480000000000002</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
